--- a/vcx.xlsx
+++ b/vcx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,6 +450,1366 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4f65ce77bacc948af69b34eaf7aef427</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Waghray</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>016c28f9104a001b0122d27bc95a2622</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>b66dc82aeadb8e3cec0144d747fad371</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>9637ba69e9efb5c80a7db9ca54631115</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30 &amp; Ishani</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>c36a38a18f1c04105738f1bfba1b41b0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26 &amp; Steven</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1ba4f9c7daa063488111c25bf5e9d262</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25 &amp; Matthew</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Waghray</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6e644a8bb4b44da5f611178f878b728d</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>28 &amp; Rohan</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>edef2f2c9535d3d8c8742d23f85b0ecc</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Waghray</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>97d2c8bb6593a4a25744890c96fac9fe</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>60ef9796ae154b1085186f1752f77d96</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>28 &amp; Louisa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>28 &amp; Louisa</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>db17bb3a78d8e609853cbd638427f318</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>28 &amp; Sanshray</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>28 &amp; Sanshray</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>adace2c5b5e12ec9ce9c7ca85bf05951</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>f04c06c54cd62a9c579cafcc6af86875</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>28 &amp; Louisa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>28 &amp; Louisa</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>c98dc1d571bb997590fd9d2a6d20c269</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>74bf39eabcd1f8869206f1f21c703169</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Waghray</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6ceca68fddd2bcb1e3d1126f2a759c68</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>30 &amp; Matthew</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>26 &amp; Akarsh</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>9382ce11e8b82c7a0ba728152811c05f</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6347096fea6d28b4b57681df65bdd7fd</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>28 &amp; Steven</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>28 &amp; Steven</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6f9511242105c9e7c7311a94b679f384</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>28 &amp; Aadi</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>26 &amp; Sanshray</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>84f1075c3db82f2963ce8db4c9bf8310</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Waghray</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ef1c083da5cf615e4e7602f2fc874798</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4e2676759d1b35597baca85b4feca3f7</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ce29965e16d4233bc61b49d98e692d7a</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Roman &amp; Wang</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>af7ab71338d54d675f4492212e52977f</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Roman &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>608a0a319e37d577f48dacc29e38627a</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>11f1c46b96d509277bba941b7ffb7465</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Roman &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Waghray</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0a8f51e702ae1033b91ec8424d778ccf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>f6f08288eb66def064b0999ff1070db4</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>82ee11f22f4602c0015788877cd93877</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Keesler-Evans</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>d32d907aac2bf1b67625792408ec8036</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>0b3e7023c2025e97f5ac591713e14476</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>aa535a9c1f54c8344ad894f2e7300888</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>bd168746a2a85b2299b1275c6da781fb</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Keesler-Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2568051b237fce2cbcd0957e560afa25</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Roman &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>30024b808dec8c1023f6b57532025dc6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Waghray</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>0e28a23b53cea8016216b02e5d34b9c0</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Waghray</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>31df21a0917072acc5650e5681111bda</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Keesler-Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>72a994dd5dd2c2dc511082c19e0aaac1</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3f437f5d0473123ddc5f776fca0892fd</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Roman &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>4e6422efaa84aa66a00a7f90d813090b</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7f01d6571736361b3f79632f76e38869</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Shah &amp; jagtap</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Dominguez &amp; Waghray</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>66dfd65406c5194f6ed47c1a1e69c3f7</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1031743dede1bdd2b591653c5ad27859</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Keesler-Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7d3fdc241427e496f764aeeb38a6fc5c</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Roman &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ff1e6a77f5a52e32668d737236ed7e9c</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>4c3288f16945fca27dde9a44442727da</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>e39b090bcc877921801100f7accd270b</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>4ec42f8fa8168f3d808867f03e7ce64d</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>20bd7bda00d38ce94557f9b6f3ea073e</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Keesler-Evans</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>fdd30fbd0c6060f918a5b9352d27d65f</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Sumesh</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Keesler-Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>29b157f162b54d89c3341d537a7ea23c</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>d333ecb76dbba4319cbc93827e4fe77e</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>45bc1f55aac6df45f91ad6ac04ebc35f</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Kim &amp; Yousuf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>0097b14ff6401c9b474e9bed7820c0f7</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Keesler-Evans</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>11b7715d3bbedcfc4c8fb662779fc1f1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>79835abfb5e446a1bc5d71bd98661fd7</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Chintham &amp; Mahant</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>41e604634fb329550c2ddb20df924a11</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sathe &amp; Sathish</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Keesler-Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>b5001b9aa606fe69b7cb586ba6ba2829</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Sumesh</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Sumesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>697f59187dd33c0fa0f0219e62d328a2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Lin &amp; Nguyen</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7b2040691ad61f8c0686293657279bb8</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Lin &amp; Nguyen</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Kan &amp; Nikahd</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>8bf54f996af609278b943bf2d60741e6</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Kan &amp; Nikahd</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Kim &amp; Sumesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>92fece93f19ce1f85991346335644c40</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Lin &amp; Nguyen</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Jain &amp; Soto</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>d6949854b9011dbb67f86b5a5088977e</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mohapatra &amp; Verma</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>a65183b73e80fe9a4ddc6f1a14fcc419</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>fd59c32937412b8cdf31090cf5a265ab</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Branson &amp; Minker</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>f3c9640806ea5fb17237ec164681e7f6</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Kan &amp; Nikahd</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>215b626eb62c9138a6f00da8c4625079</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mohapatra &amp; Verma</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>b9bc3ef65d82fa1f941012c182c73a0c</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>8d410551d28f3e49ba6810490a1d73bb</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Lin &amp; Nguyen</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Kim &amp; Sumesh</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ecf240f5a009ae95783b1ab39d6c9e85</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Branson &amp; Minker</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Jain &amp; Soto</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>9e0eed74393309424dd0e42600304ce8</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Lin &amp; Nguyen</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mohapatra &amp; Verma</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>27eb75f87f381d136b89c41a713ed549</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Kan &amp; Nikahd</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Jain &amp; Soto</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>031696d89a9be044dd49cb9e2a3f05cf</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>79b0c9508cbdb1ed18b56faf9601e741</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>a8eda1997a8b0feea4be03e679cf236d</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Kim &amp; Sumesh</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Branson &amp; Minker</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>5e663ccfce0dc8d46d2999468b3cb18a</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Lin &amp; Nguyen</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Kandala &amp; Singh</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>d87d56e6bd09c4032479a0654ff1d54f</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Kan &amp; Nikahd</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sahoo &amp; Urunkar</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4c28a7b2a4cfe33b2a892071d47649d7</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Kim &amp; Sumesh</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Chung &amp; Kaplan</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>67d5c363a1e4b2aaa82ea63447327127</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Branson &amp; Minker</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Mohapatra &amp; Verma</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>b19de0f6fba0379d2c8ee17c18afafde</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Hsu &amp; Wang</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Jain &amp; Soto</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
